--- a/ss.xlsx
+++ b/ss.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">fname_ar</t>
   </si>
@@ -40,10 +40,10 @@
     <t xml:space="preserve">cin</t>
   </si>
   <si>
-    <t xml:space="preserve">case_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diploma</t>
+    <t xml:space="preserve">n_dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filiere</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -64,39 +64,39 @@
     <t xml:space="preserve">Benelmaalem</t>
   </si>
   <si>
+    <t xml:space="preserve">D13233413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JT116714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/CH_APP/2023/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimie Appliquée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images_etudiants/D13233413.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سعيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شمسي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">D132500593</t>
   </si>
   <si>
-    <t xml:space="preserve">JT116714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/CH_APP/2023/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimie Appliquée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etudiants/dd.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سعيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شمسي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Said</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D112233</t>
-  </si>
-  <si>
     <t xml:space="preserve">JC3322</t>
   </si>
   <si>
@@ -104,16 +104,79 @@
   </si>
   <si>
     <t xml:space="preserve">9/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">images_etudiants/D132500593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عربي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC3323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/CH_APP/2023/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">images_etudiants/DDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.png</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Nimbus Sans"/>
@@ -140,6 +203,11 @@
       <name val="Lohit Devanagari"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Nimbus Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +262,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,10 +294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,6 +309,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,7 +357,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -291,7 +372,7 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -308,7 +389,7 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -323,8 +404,40 @@
       <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>19</v>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
